--- a/biology/Zoologie/Conocephalus_dorsalis/Conocephalus_dorsalis.xlsx
+++ b/biology/Zoologie/Conocephalus_dorsalis/Conocephalus_dorsalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conocéphale des roseaux
 Conocephalus dorsalis, le conocéphale des roseaux, est une espèce d'insectes orthoptères de la famille des Tettigoniidae et de la sous-famille des Conocephalinae.
@@ -512,7 +524,9 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Conocephalus dorsalis a été nommé par Latreille en 1804.Synonyme : Xiphidium dorsale (Latreille, 1804).Nom vernaculaire : conocéphale (étymologie : « tête conique ») des roseaux.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est en régression, mais elle était autrefois répandue dans toute l'Europe occidentale[1], plus abondante dans les régions du nord[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est en régression, mais elle était autrefois répandue dans toute l'Europe occidentale, plus abondante dans les régions du nord.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a des exigences sur le plan de la qualité d'habitats (bon état écologique), mais aussi dans le domaine des corridors biologiques, ce pour quoi elle a été retenue comme espèce indicatrice pour l'évaluation de la cohérence écologique de la trame verte et bleue française. 
-Il a été montré que les opérations de transfert de haies pouvaient localement contribuer à la diffusion d'individus/propagules [2]. 
+Il a été montré que les opérations de transfert de haies pouvaient localement contribuer à la diffusion d'individus/propagules . 
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sauterelle, de couleur vert pâle, très mimétique, a le corps long de 12 à 18 mm, ressemble à l'espèce voisine, Conocephalus fuscus, mais les élytres sont courts dans les deux sexes et les ailes vestigiales.L'oviscapte de la femelle est recourbé et plus court (8 à 11 mm)[3].Les deux cerques du mâle portent vers leur extrémité, chacun une dent latérale interne plus longue.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sauterelle, de couleur vert pâle, très mimétique, a le corps long de 12 à 18 mm, ressemble à l'espèce voisine, Conocephalus fuscus, mais les élytres sont courts dans les deux sexes et les ailes vestigiales.L'oviscapte de la femelle est recourbé et plus court (8 à 11 mm).Les deux cerques du mâle portent vers leur extrémité, chacun une dent latérale interne plus longue.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conocéphale des roseaux affectionne la végétation (herbacée et buissonnante) des lieux humides : marais, bords des cours d'eau, prairies humides, etc. ; 
 </t>
@@ -668,7 +690,9 @@
           <t>Espèce menacée ?</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est en déclin en Europe : la dégradation des zones humides la rend vulnérable. 
 </t>
@@ -699,10 +723,12 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus actif de jour que de nuit, ce conocéphale grâce à ses couleurs et motifs se dissimule facilement dans la végétation, l'adulte de juillet à octobre.
-D'après M. Chinery (op cit[3]), le chant du mâle ressemble « au son produit par une lame qu'on aiguise sur une meule, quand on augmente et relâche la pression exercée sur cette lame » (deux motifs alternés donc).
+D'après M. Chinery (op cit), le chant du mâle ressemble « au son produit par une lame qu'on aiguise sur une meule, quand on augmente et relâche la pression exercée sur cette lame » (deux motifs alternés donc).
 La femelle pond dans les tiges des végétaux après y avoir éventuellement ouvert une brèche avec ses mandibules.
 </t>
         </is>
